--- a/biology/Botanique/Clitocybe_candicans/Clitocybe_candicans.xlsx
+++ b/biology/Botanique/Clitocybe_candicans/Clitocybe_candicans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clitocybe blanc
 Clitocybe candicans, le Clitocybe blanc, est une espèce de champignons basidiomycètes de la famille des Tricholomataceae.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial accepté
-Clitocybe candicans (Pers.) P. Kumm. 1871[1]
-Synonymes
-Agaricus candicans Pers. 1801
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitocybe candicans (Pers.) P. Kumm. 1871
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Clitocybe_candicans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_candicans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus candicans Pers. 1801
 Agaricus candicans var. candicans Pers. 1801
 Agaricus gallinaceus Scop. 1772
 Agaricus tuba Fr. 1838
@@ -525,41 +577,7 @@
 Clitocybe phyllophila f. candicans J.E. Lange
 Clitocybe tuba (Fr.) Gillet 1874
 Omphalia candicans (Pers.) Gray 1821
-Pholiota candicans (Pers.) J. Schröt. 1889
-Taxon intraspécifique
-Clitocybe candicans var. dryadicola Lamoure 1966
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Clitocybe_candicans</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Clitocybe_candicans</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom a été tiré du grec  κυβε, kubê, « tête » et κλειτος, clitos, « pente ».
-</t>
+Pholiota candicans (Pers.) J. Schröt. 1889</t>
         </is>
       </c>
     </row>
@@ -584,13 +602,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le chapeau, d'un diamètre d'environ 3 cm, est bassement convexe ou subdéprimé[2], parfois légèrement déprimé, à marge lisse et peu onduleuse. la cuticule est blanc pur, glacé, paraissant légèrement vernissée et soyeuse, de couleur blanche devenant rose ochracé pâle en vieillissant. La chair est de couleur blanche. Les lames sont adnées à peu décurrentes, fines, étroites et serrées, de couleur blanche. Le pied est cylindrique, lisse, finement pruineux, souvent flexueux ou courbé à la base, de couleur blanche devenant ocre pâle à ocre rosâtre pâle en vieillissant. Les spores sont de couleur blanche
-Avec une odeur faiblement farineuse, sans saveur ou dégageant une faible amertume, ce champignon est particulièrement toxique. La confusion possible avec un très bon comestible, Clitopilus prunulus, doit inciter à la plus grande prudence lors de la cueillette de cette dernière espèce.
+          <t>Taxon intraspécifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitocybe candicans var. dryadicola Lamoure 1966
 </t>
         </is>
       </c>
@@ -616,12 +639,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelouses et endroits herbeux, zones à végétation basse. Sous feuillus.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom a été tiré du grec  κυβε, kubê, « tête » et κλειτος, clitos, « pente ».
 </t>
         </is>
       </c>
@@ -647,12 +672,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrique du Nord, Europe.
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau, d'un diamètre d'environ 3 cm, est bassement convexe ou subdéprimé, parfois légèrement déprimé, à marge lisse et peu onduleuse. la cuticule est blanc pur, glacé, paraissant légèrement vernissée et soyeuse, de couleur blanche devenant rose ochracé pâle en vieillissant. La chair est de couleur blanche. Les lames sont adnées à peu décurrentes, fines, étroites et serrées, de couleur blanche. Le pied est cylindrique, lisse, finement pruineux, souvent flexueux ou courbé à la base, de couleur blanche devenant ocre pâle à ocre rosâtre pâle en vieillissant. Les spores sont de couleur blanche
+Avec une odeur faiblement farineuse, sans saveur ou dégageant une faible amertume, ce champignon est particulièrement toxique. La confusion possible avec un très bon comestible, Clitopilus prunulus, doit inciter à la plus grande prudence lors de la cueillette de cette dernière espèce.
 </t>
         </is>
       </c>
@@ -678,10 +706,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelouses et endroits herbeux, zones à végétation basse. Sous feuillus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clitocybe_candicans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_candicans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrique du Nord, Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clitocybe_candicans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clitocybe_candicans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Assez commun à assez rare.
 </t>
